--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>945483.014035882</v>
+        <v>915943.2729059731</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9257225.343530988</v>
+        <v>7226289.925414164</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5370379.756827482</v>
+        <v>3187716.885615898</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9757515.850878889</v>
+        <v>10601278.34820128</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>181.7508773607583</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>78.43452536694535</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.63926978364023</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>91.26938074884195</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>19.52128082800865</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.1944522398487</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.63926978364023</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>265.2105476217911</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>81.12200652863734</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>92.26024958059011</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.18624318344742</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.6486541257154</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>135.5753427036754</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>24.27311936183927</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>348.5324979237049</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>50.43805308696707</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>209.6931219609837</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292724</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>28.19283451330908</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>107.9221621584908</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2137,13 +2137,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>168.1161921880577</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492396</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.7983661210453</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,7 +2532,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>133.9957991827008</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>42.0120131744533</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>215.1552491097699</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>76.73163039244919</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>52.74455946606852</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>339.2685880509452</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>30.96411613815276</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>55.30887384997085</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>100.8513050998862</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>165.86844103878</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3441,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>369.6196756555346</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3678,7 +3678,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>34.987230763697</v>
       </c>
       <c r="X40" t="n">
-        <v>5.348319023254057</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>188.2196394312107</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>95.85419383864892</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>208.8409425110368</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>229.796569204137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>63.13355668550172</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>51.06561173382029</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y2" t="n">
-        <v>2697.149091018222</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="3">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>1177.981643776797</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2617.922297718278</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2364.160512356369</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N6" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P6" t="n">
         <v>2568.06040664989</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.955373861002</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>534.603677789272</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="C8" t="n">
-        <v>534.603677789272</v>
+        <v>975.0839883974841</v>
       </c>
       <c r="D8" t="n">
-        <v>534.603677789272</v>
+        <v>975.0839883974841</v>
       </c>
       <c r="E8" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2622.401936065879</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2368.64015070397</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V8" t="n">
-        <v>2037.577263360399</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1684.808608090285</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X8" t="n">
-        <v>1311.342849829206</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y8" t="n">
-        <v>921.2035178533938</v>
+        <v>1344.046505337896</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.955373861002</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>781.1711973675267</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C11" t="n">
-        <v>412.2086804271149</v>
+        <v>1535.524858594926</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>1177.259159988176</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>791.4709073899314</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>199.5143021373488</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>468.4264940665503</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>838.9376088552594</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1282.872051350724</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>1738.603625623768</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2155.602766936375</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>2477.000885571628</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.18474111696</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2615.207670282225</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>2284.144782938654</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>1931.37612766854</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X11" t="n">
-        <v>1557.91036940746</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y11" t="n">
-        <v>1167.771037431648</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3062050962127</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8531758150857</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9187661538344</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>448.681311148379</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1467531752639</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>165.5050957234327</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>72.3129244299073</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>246.6565409677914</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>537.8115956207097</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2309936650815</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.331799318883</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1625.848453140027</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>1971.85275817634</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2230.218651003075</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2560.986726597623</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2560.986726597623</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.374760706703</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.608979049431</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.522806046712</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.370697814969</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.133341086767</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.281840881235</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.521542116281</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.385797430379</v>
+        <v>339.3097953702104</v>
       </c>
       <c r="C13" t="n">
-        <v>888.4496145024721</v>
+        <v>339.3097953702104</v>
       </c>
       <c r="D13" t="n">
-        <v>738.3329750901363</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E13" t="n">
-        <v>590.4198815077432</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>443.5299340098328</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>306.5851434000597</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>158.2916353233891</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>82.88339090485943</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>260.2782098866546</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>542.8089378877605</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>851.0870999282812</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1157.469712732903</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1424.447349606354</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1629.372157534689</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1687.816392302166</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1687.816392302166</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1687.816392302166</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1687.816392302166</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1687.816392302166</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V13" t="n">
-        <v>1687.816392302166</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W13" t="n">
-        <v>1687.816392302166</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X13" t="n">
-        <v>1459.826841404149</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.034262260619</v>
+        <v>520.9582602004501</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1969.423143692379</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C14" t="n">
-        <v>1600.460626751968</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D14" t="n">
-        <v>1600.460626751968</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.672374153723</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F14" t="n">
-        <v>803.686469364116</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
-        <v>388.6140192091124</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>91.03041881787965</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296686</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.628073993393</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V14" t="n">
-        <v>3119.628073993393</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W14" t="n">
-        <v>3119.628073993393</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X14" t="n">
-        <v>2746.162315732313</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y14" t="n">
-        <v>2356.022983756501</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5360,25 +5360,25 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1876.347019717819</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1654.580404287345</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088492</v>
+        <v>1365.477537412989</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088492</v>
+        <v>1365.477537412989</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1076.060367376028</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1859.132475219474</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
-        <v>1490.169958279063</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D17" t="n">
-        <v>1490.169958279063</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.381705680818</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>693.3958008912109</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G17" t="n">
-        <v>278.3233507362074</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>137.557933208927</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520488</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V17" t="n">
-        <v>3009.337405520488</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W17" t="n">
-        <v>3009.337405520488</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X17" t="n">
-        <v>2635.871647259408</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y17" t="n">
-        <v>2245.732315283596</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927783</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064583</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>686.126594326469</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C19" t="n">
-        <v>686.126594326469</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D19" t="n">
-        <v>536.0099549141332</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>388.0968613317401</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>241.2069138338298</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G19" t="n">
-        <v>241.2069138338298</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H19" t="n">
-        <v>94.98972705168754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1655.645296922954</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1366.542430048597</v>
       </c>
       <c r="V19" t="n">
-        <v>1134.908724368016</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="W19" t="n">
-        <v>1134.908724368016</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="X19" t="n">
-        <v>906.9191734699991</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y19" t="n">
-        <v>686.126594326469</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1689.318139675982</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.35562273557</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520488</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>2839.523069976995</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>2839.523069976995</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>2466.057311715915</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2075.917979740103</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.823389952861</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952861</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952861</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952861</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952861</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952861</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366698</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193525</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763051</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888694</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682808</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645847</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.12878874783</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>1540.336209604299</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5995,46 +5995,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,16 +6086,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2917.269290763411</v>
+        <v>688.1662718722065</v>
       </c>
       <c r="C25" t="n">
-        <v>2917.269290763411</v>
+        <v>688.1662718722065</v>
       </c>
       <c r="D25" t="n">
-        <v>2917.269290763411</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E25" t="n">
-        <v>2917.269290763411</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F25" t="n">
-        <v>2917.269290763411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>4586.365838246546</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>4364.599222816072</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>4075.496355941716</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V25" t="n">
-        <v>3820.811867735829</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W25" t="n">
-        <v>3531.394697698868</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X25" t="n">
-        <v>3303.405146800851</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="Y25" t="n">
-        <v>3082.612567657321</v>
+        <v>688.1662718722065</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2315.739674525253</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>1946.777157584841</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1588.511458978091</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1202.723206379846</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>791.7373015902388</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>376.6648514352352</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>79.08125104400237</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>79.08125104400237</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>267.9603820030278</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>899.0866305822356</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1350.120843830644</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>1883.652748502569</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2430.431565561351</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>2933.404036440688</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P26" t="n">
-        <v>3646.759123887634</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>3895.045485643316</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>3954.062552200119</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>3954.062552200119</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>3954.062552200119</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>3954.062552200119</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3818.713260096381</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3465.944604826266</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.478846565186</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2702.339514589375</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>954.1129890929274</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>779.6599598118004</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>630.7255501505492</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>471.4880951450937</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>324.9535371719787</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>188.5904370045973</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>98.08854264246474</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>79.08125104400237</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>172.7585205346199</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>411.022719514967</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>777.7208798276324</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.997205049948</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1698.520248604402</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2109.481528022457</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2419.98111949856</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2577.62267714516</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2577.478323737676</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2448.040437231155</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2255.397436909011</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2027.329590043427</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1792.177481811684</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1537.940125083482</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1330.088624877949</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1122.328326112995</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>436.110412111086</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>436.110412111086</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>436.110412111086</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>436.110412111086</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>289.2204646131756</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>121.5176279878946</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>121.5176279878946</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>79.08125104400237</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>124.2038834909379</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>328.1910664398143</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>644.7508648883104</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>988.9079104878595</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1330.316287193724</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1629.645886114138</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>1862.253386547797</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1939.863682700312</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1939.863682700312</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1939.863682700312</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1718.097067269838</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1428.994200395481</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1174.309712189594</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>884.8925421526335</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>656.9029912546162</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>436.110412111086</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1866.495602559257</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>1497.533085618845</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1139.267387012095</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>753.4791344138503</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>536.1505999595372</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G29" t="n">
-        <v>121.0781498045336</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>121.0781498045336</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>79.08125104400237</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>267.9603820030278</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>601.7797556928742</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1466.298571346229</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>1999.830476018154</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.609293076936</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
-        <v>3251.984757530456</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>3646.759123887634</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>3895.045485643316</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>3954.062552200119</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>3954.062552200119</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>3954.062552200119</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>3700.532075473955</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3369.469188130384</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3016.70053286027</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>2643.23477459919</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2253.095442623378</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>954.1129890929275</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>779.6599598118005</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>630.7255501505492</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>471.4880951450938</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>324.9535371719788</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>188.5904370045969</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>98.0885426424644</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>79.08125104400237</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>172.7585205346197</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>411.0227195149669</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>777.7208798276322</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1224.997205049948</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1698.520248604403</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2109.481528022457</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2419.98111949856</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2577.62267714516</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2577.478323737676</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2448.040437231155</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2255.397436909011</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2027.329590043426</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1792.177481811684</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1537.940125083482</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1330.088624877949</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1122.328326112995</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>765.3314295856769</v>
+        <v>488.8938622403219</v>
       </c>
       <c r="C31" t="n">
-        <v>596.39524665777</v>
+        <v>319.9576793124151</v>
       </c>
       <c r="D31" t="n">
-        <v>446.2786072454343</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E31" t="n">
-        <v>446.2786072454343</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>446.2786072454343</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>278.5757706201532</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>132.358583838011</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>79.08125104400237</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>124.2038834909379</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>328.1910664398143</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>644.7508648883104</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>988.9079104878595</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1330.316287193724</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1629.645886114138</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1862.253386547797</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1939.863682700312</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1939.863682700312</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1939.863682700312</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1939.863682700312</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1939.863682700312</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1685.179194494425</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1395.762024457464</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>1167.772473559447</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y31" t="n">
-        <v>946.9798944159166</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2357.736573285784</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>1988.774056345372</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1630.508357738622</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1244.720105140377</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>833.7342003507699</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>418.6617501957664</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H32" t="n">
-        <v>121.0781498045336</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>79.08125104400237</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>435.3660310233809</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>942.4162552444445</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1393.450468492853</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>1926.982373164778</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2473.76119022356</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>2976.733661102897</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>3371.508027460075</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>3829.986229969064</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>3954.062552200119</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>3843.771883727214</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>3637.794136111436</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>3384.263659385272</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3053.200772041701</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>2700.432116771587</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>2700.432116771587</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2700.432116771587</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>954.1129890929275</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>779.6599598118005</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>630.7255501505492</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>471.4880951450938</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>324.9535371719788</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>188.5904370045969</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>98.0885426424644</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
-        <v>79.08125104400237</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>172.7585205346197</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>411.0227195149669</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>777.7208798276322</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>1224.997205049948</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1698.520248604403</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2109.481528022457</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2419.98111949856</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2577.62267714516</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2577.478323737676</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2448.040437231155</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2255.397436909011</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2027.329590043426</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1792.177481811684</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1537.940125083482</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1330.088624877949</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1122.328326112995</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2389.585519338778</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C34" t="n">
-        <v>2389.585519338778</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D34" t="n">
-        <v>2389.585519338778</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E34" t="n">
-        <v>2389.585519338778</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>2389.585519338778</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>2221.882682713497</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>2190.605797725464</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2093.280120543809</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2138.402752990745</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>2342.389935939621</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>2658.949734388118</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3003.106779987666</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>3344.515156693531</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>3643.844755613944</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>3876.452256047604</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>3954.062552200119</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>3864.232094957646</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>3672.546210784473</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>3450.779595353999</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>3161.676728479642</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V34" t="n">
-        <v>2906.992240273756</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W34" t="n">
-        <v>2617.575070236795</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X34" t="n">
-        <v>2389.585519338778</v>
+        <v>942.9217589148035</v>
       </c>
       <c r="Y34" t="n">
-        <v>2389.585519338778</v>
+        <v>722.1291797712734</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2018.15607413402</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>1649.193557193608</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1290.927858586858</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>905.1396059886135</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>494.1537011990059</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>79.08125104400237</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>79.08125104400237</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>79.08125104400237</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>373.7703241499999</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>707.5896978398464</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1158.623911088255</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2137.174213918084</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2683.953030976866</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3186.925501856203</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>3581.699868213381</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>3829.986229969064</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>3954.062552200119</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>3954.062552200119</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>3852.192547048719</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>3852.192547048719</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3521.129659705148</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3168.361004435033</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>2794.895246173954</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2404.755914198142</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2330.552864147886</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C36" t="n">
-        <v>2156.099834866759</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D36" t="n">
-        <v>2007.165425205508</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E36" t="n">
-        <v>1847.927970200052</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F36" t="n">
-        <v>1701.393412226937</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G36" t="n">
-        <v>1565.030312059555</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H36" t="n">
-        <v>1474.528417697423</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I36" t="n">
-        <v>1455.521126098961</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>1549.198395589578</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>1787.462594569926</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L36" t="n">
-        <v>2154.160754882591</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>2601.437080104907</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3074.960123659361</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>3485.921403077416</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>3796.420994553519</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>3954.062552200119</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
-        <v>3953.918198792634</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>3824.480312286114</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>3631.837311963969</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U36" t="n">
-        <v>3403.769465098385</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>3168.617356866642</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W36" t="n">
-        <v>2914.380000138441</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X36" t="n">
-        <v>2706.528499932908</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y36" t="n">
-        <v>2498.768201167954</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3118.381684553433</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C37" t="n">
-        <v>2949.445501625526</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D37" t="n">
-        <v>2799.32886221319</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>2651.415768630797</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.525821132887</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>2336.822984507606</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>2190.605797725464</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2093.280120543809</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2138.402752990745</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>2342.389935939621</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>2658.949734388118</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3003.106779987666</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>3344.515156693531</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>3643.844755613944</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>3876.452256047604</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>3954.062552200119</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>3954.062552200119</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>3762.376668026945</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>3540.610052596471</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>3540.610052596471</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V37" t="n">
-        <v>3285.925564390584</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W37" t="n">
-        <v>3285.925564390584</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X37" t="n">
-        <v>3285.925564390584</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y37" t="n">
-        <v>3285.925564390584</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1605.60199849331</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>1236.639481552899</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1236.639481552899</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>850.8512289546543</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>439.8653241650467</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>2755.806928794324</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>2755.806928794324</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>2382.341170533244</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>1992.201838557432</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2073.546454440587</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C40" t="n">
-        <v>2073.546454440587</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D40" t="n">
-        <v>2073.546454440587</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E40" t="n">
-        <v>1925.633360858194</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F40" t="n">
-        <v>1778.743413360284</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>1611.040576735003</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>3133.919937435996</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>2912.153322005523</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>2623.050455131166</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V40" t="n">
-        <v>2368.365966925279</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W40" t="n">
-        <v>2078.948796888319</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X40" t="n">
-        <v>2073.546454440587</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y40" t="n">
-        <v>2073.546454440587</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1632.511388127729</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>1263.548871187317</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>905.2831725805665</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>519.4949199823222</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>108.5090151927147</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3135.484973698856</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>2782.716318428742</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>2409.250560167662</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2019.11122819185</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556937</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.64310427581</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.708694614559</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609103</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.936681635988</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686066</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>846.0716871064741</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>827.064395508012</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986294</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978977</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291642</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513958</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068413</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486467</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.96426396257</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.60582160917</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201685</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695165</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373021</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507436</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275694</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547492</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.071769341959</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577005</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>796.8106393615039</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="C43" t="n">
-        <v>627.8744564335971</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D43" t="n">
-        <v>477.7578170212613</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E43" t="n">
-        <v>477.7578170212613</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1716.344101107647</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1427.241234233291</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1427.241234233291</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W43" t="n">
-        <v>1427.241234233291</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="X43" t="n">
-        <v>1199.251683335274</v>
+        <v>1025.798548728682</v>
       </c>
       <c r="Y43" t="n">
-        <v>978.4591041917437</v>
+        <v>805.005969585152</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1590.514489367197</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>1221.551972426786</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3093.488074938325</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>2740.71941966821</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>2367.25366140713</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>1977.114329431319</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>701.1808689801002</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="C46" t="n">
-        <v>532.2446860521933</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="D46" t="n">
-        <v>382.1280466398575</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574644</v>
+        <v>159.3323038276891</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1875.713122094735</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1875.713122094735</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1875.713122094735</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1875.713122094735</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1621.028633888848</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>1331.611463851887</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>1103.62191295387</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y46" t="n">
-        <v>882.8293338103399</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
   </sheetData>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>97.9561905389088</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>17.26494649393206</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,16 +9169,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>124.0833809162824</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,16 +9406,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9643,25 +9643,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>7.630896635344584</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>300.3099746357184</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,13 +10120,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>189.7998007892635</v>
       </c>
       <c r="O29" t="n">
-        <v>204.4474682567503</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>174.9806571022396</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>106.8787294413859</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>-3.852796985517648e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>189.7998007892635</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>167.4900913566547</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22713,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,16 +22761,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22786,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>138.0137949907124</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22941,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -22962,10 +22962,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -22998,13 +22998,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401878</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>290.6609893234198</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>196.9270395296491</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>3.115350019202168</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -23235,13 +23235,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401878</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>141.6654981199204</v>
       </c>
       <c r="G11" t="n">
-        <v>411.4371413535349</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8862654257798</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>61.44749355031652</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.1742023667267</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>169.9143986862711</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>23.96681889249692</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>30.68166329459021</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.32764374521085</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2244489913895</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>17.30381041108671</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>21.19860275476412</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>139.3309722444748</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>84.91464242633674</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>68.15958589652901</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>111.6267871176784</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>159.6360662820772</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>70.6633565680072</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.14213605696628</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>19.81710689716706</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>193.7564592874341</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>54.34040723538479</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>191.7207966319415</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>71.88384262576317</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>43.60786094376957</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>43.46525361253538</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>113.790898776168</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>170.4007815390663</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>103.066665039734</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.96353914315731</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>94.35543628911083</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>41.3020499979188</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>251.535767572894</v>
       </c>
       <c r="X40" t="n">
-        <v>220.3613363657831</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>139.5326190389242</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>83.97778634328837</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>10.70800676513235</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>97.9556892659979</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>82.28749133742953</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.86654093622704</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>770429.2612857188</v>
+        <v>770429.2612857189</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>770429.2612857189</v>
+        <v>770429.2612857188</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772480.914770855</v>
+        <v>839712.5002338423</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839712.5002338424</v>
+        <v>839712.5002338423</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839712.5002338423</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839712.5002338422</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>997148.1876184228</v>
+        <v>997148.1876184229</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>907833.1216744323</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>907833.1216744322</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>907833.1216744321</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>907833.1216744321</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839712.5002338421</v>
+        <v>997148.1876184229</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839712.5002338424</v>
+        <v>997148.1876184229</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839712.5002338423</v>
+        <v>997148.1876184227</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>303610.2405165453</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="E2" t="n">
-        <v>327765.7989333928</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="F2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="G2" t="n">
-        <v>358046.9539194665</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="H2" t="n">
-        <v>358046.9539194666</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="I2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="J2" t="n">
-        <v>383527.5171290747</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="K2" t="n">
-        <v>383527.5171290748</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="L2" t="n">
-        <v>383527.5171290748</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="M2" t="n">
-        <v>383527.5171290748</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="N2" t="n">
-        <v>358046.9539194665</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="O2" t="n">
-        <v>358046.9539194666</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="P2" t="n">
-        <v>358046.9539194666</v>
+        <v>416935.8762313323</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>469045.4557502365</v>
+        <v>618960.3159503539</v>
       </c>
       <c r="F3" t="n">
-        <v>146359.9793562346</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>99523.40868091497</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>96558.96659736053</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>122525.2635793586</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>39153.48277254681</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>87383.13961898992</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>62518.47524617217</v>
       </c>
       <c r="E4" t="n">
-        <v>8233.309415547665</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="F4" t="n">
-        <v>4890.851381993022</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="G4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="H4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25090.7236749938</v>
+      </c>
+      <c r="K4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="J4" t="n">
-        <v>13631.10511022451</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13631.1051102245</v>
-      </c>
       <c r="L4" t="n">
-        <v>13631.1051102245</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
-        <v>13631.1051102245</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
-        <v>4890.851381993001</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>61958.82776879413</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="J5" t="n">
-        <v>83858.8828663757</v>
-      </c>
       <c r="K5" t="n">
-        <v>83858.8828663757</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>83858.8828663757</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>83858.8828663757</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-431735.1920075805</v>
+        <v>-437803.6057533997</v>
       </c>
       <c r="C6" t="n">
-        <v>158232.6872069637</v>
+        <v>152164.2734611445</v>
       </c>
       <c r="D6" t="n">
-        <v>158232.6872069638</v>
+        <v>152164.2734611447</v>
       </c>
       <c r="E6" t="n">
-        <v>-211471.7940011855</v>
+        <v>-343586.7432723347</v>
       </c>
       <c r="F6" t="n">
-        <v>132489.7826198458</v>
+        <v>275373.5726780192</v>
       </c>
       <c r="G6" t="n">
-        <v>278849.76197608</v>
+        <v>195266.270719452</v>
       </c>
       <c r="H6" t="n">
-        <v>278849.7619760803</v>
+        <v>294789.6794003669</v>
       </c>
       <c r="I6" t="n">
-        <v>198902.6677052644</v>
+        <v>294789.679400367</v>
       </c>
       <c r="J6" t="n">
-        <v>163512.2655731159</v>
+        <v>118366.4602077742</v>
       </c>
       <c r="K6" t="n">
-        <v>286037.5291524746</v>
+        <v>294789.6794003669</v>
       </c>
       <c r="L6" t="n">
-        <v>286037.5291524746</v>
+        <v>294789.679400367</v>
       </c>
       <c r="M6" t="n">
-        <v>286037.5291524746</v>
+        <v>255636.1966278201</v>
       </c>
       <c r="N6" t="n">
-        <v>278849.7619760802</v>
+        <v>294789.6794003668</v>
       </c>
       <c r="O6" t="n">
-        <v>278849.7619760803</v>
+        <v>207406.5397813772</v>
       </c>
       <c r="P6" t="n">
-        <v>278849.7619760803</v>
+        <v>294789.6794003668</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>961.5670451980345</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26795,43 +26795,43 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>988.5156380500297</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="K4" t="n">
-        <v>988.5156380500297</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="L4" t="n">
-        <v>988.5156380500297</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>988.5156380500297</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>1194.51293060493</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>583.8233809809478</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
-        <v>128.2096553952636</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>157.1141826477374</v>
       </c>
       <c r="F4" t="n">
-        <v>157.114182647737</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>363.1114752026377</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>363.1114752026374</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>468.2899801996552</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>157.1141826477376</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>363.1114752026375</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>157.1141826477374</v>
       </c>
       <c r="N4" t="n">
-        <v>157.114182647737</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>363.1114752026377</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31278,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31299,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.865596161600136</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>39.5885366899874</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>149.0283960200894</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>328.0876422206098</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>491.7183277411437</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>610.020066271714</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>678.7648620105704</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>689.7479871047168</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>651.3094652728054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>555.877560033302</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>417.440897495997</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>242.8222548861147</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>88.08727253246319</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>16.9216471974046</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3092476929280108</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>71.21038966796766</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>195.4067520812346</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>333.9812632363777</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>449.0790242691387</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>524.0540396329287</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>537.9241906905495</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>492.0955424609224</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>38.41732487182711</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>8.33660485412258</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.733973360193177</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>15.41659951153571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>52.14530795926392</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>201.45617766608</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>257.7945484781747</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>265.345214292107</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>245.0892527662139</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>209.7161962182729</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>145.1966238249032</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>77.96574763195864</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>30.21842664991199</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>7.408795266279935</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09458036510144611</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34219,7 +34219,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34465,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34938,7 +34938,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435301</v>
@@ -34950,7 +34950,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0417376939236</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>271.6284766961631</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>374.2536513017267</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>448.4186287832977</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>460.3349235081259</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>421.2112538511186</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>324.6445642780324</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.1352076215475</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>27.23671707198261</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.6601607549767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>294.0960148009275</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>310.5246444892645</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>381.9200057109104</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>406.5824786072162</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>349.499298016478</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>260.9756493199342</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>334.10916726722</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>29.23273644898482</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>179.1866858401971</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>285.3845737384909</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>311.3920828692128</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>309.4773866713356</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>206.9947554831664</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.03458057320883</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>676.3852163291939</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35907,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>559.9327320482561</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>637.5012611911189</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>742.101636202175</v>
       </c>
       <c r="O29" t="n">
-        <v>712.5004691449694</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>512.1719436576401</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>297.6657304100985</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37329,7 +37329,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37563,7 +37563,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37785,16 +37785,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>742.101636202175</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37867,7 +37867,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38031,16 +38031,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38113,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>915943.2729059731</v>
+        <v>940704.5786978512</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7226289.925414164</v>
+        <v>8289674.162431624</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3187716.885615898</v>
+        <v>4234446.526755523</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10601278.34820128</v>
+        <v>10180039.69429826</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>338.4244703664878</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>181.7508773607583</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="U4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>78.43452536694535</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>307.6892992506819</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.63926978364023</v>
+        <v>101.780687729549</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>91.26938074884195</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>67.84173241170474</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>86.88462298447445</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.63926978364023</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>265.2105476217911</v>
+        <v>392.7967678039374</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>124.6486541257154</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>159.9649612390309</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>348.5324979237049</v>
+        <v>203.1002079700036</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,7 +1782,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>68.85005436467023</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>50.43805308696707</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>239.1293185150375</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292724</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>58.23923247032614</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>107.9221621584908</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>70.95523487620115</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>74.75769145492404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>21.82802799868889</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>128.7983661210453</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>33.48310077427426</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>76.73163039244919</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>131.5730391207948</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>55.30887384997085</v>
+        <v>74.75821823676763</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.917970139621</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>10.3175273983147</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>94.3500638492266</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>192.1675620474802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>104.7851404690824</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>34.987230763697</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>323.7013721104204</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.85419383864892</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>254.0699062786099</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3994,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>63.13355668550172</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.855211652197</v>
+        <v>1979.48636361053</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1610.523846670118</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
         <v>882.8926947117852</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>2028.59438369213</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>2028.59438369213</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y2" t="n">
-        <v>1638.455051716319</v>
+        <v>2366.086203674652</v>
       </c>
     </row>
     <row r="3">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U4" t="n">
-        <v>571.3497027553424</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
         <v>882.8926947117852</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2617.922297718278</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2364.160512356369</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2033.097625012799</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2033.097625012799</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="X5" t="n">
-        <v>1659.631866751719</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="Y5" t="n">
-        <v>1269.492534775907</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.81559303506</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.955373861002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1344.046505337896</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="C8" t="n">
-        <v>975.0839883974841</v>
+        <v>1193.718655425422</v>
       </c>
       <c r="D8" t="n">
-        <v>975.0839883974841</v>
+        <v>835.4529568186713</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>449.664704220427</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942546</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>1717.512263598976</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X8" t="n">
-        <v>1344.046505337896</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y8" t="n">
-        <v>1344.046505337896</v>
+        <v>1562.681172365833</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.955373861002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1904.487375535338</v>
+        <v>1575.996801618095</v>
       </c>
       <c r="C11" t="n">
-        <v>1535.524858594926</v>
+        <v>1207.034284677683</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.259159988176</v>
+        <v>848.7685860709328</v>
       </c>
       <c r="E11" t="n">
-        <v>791.4709073899314</v>
+        <v>462.9803334726885</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>66.21592154951946</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.21592154951946</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.21592154951946</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951946</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>254.0744928369595</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>586.3643121319026</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1035.500977900982</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2612.501248106874</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3005.546484356409</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3252.534341412641</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.796077475973</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3310.796077475973</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3310.796077475973</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410103</v>
+        <v>3057.264619262679</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>2726.201731919108</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796418</v>
+        <v>2726.201731919108</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535338</v>
+        <v>2352.735973658028</v>
       </c>
       <c r="Y11" t="n">
-        <v>1904.487375535338</v>
+        <v>1962.596641682217</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3156003142904</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8625710331634</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>607.928161371912</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6907063664564</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1561483933415</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>165.7864839520673</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>75.22119252365798</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951946</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>396.5106591183473</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>761.8119001858317</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1679.30784629592</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2088.738397943177</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2398.00944543187</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033047</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339.3097953702104</v>
+        <v>847.7801248620698</v>
       </c>
       <c r="C13" t="n">
-        <v>339.3097953702104</v>
+        <v>678.8439419341629</v>
       </c>
       <c r="D13" t="n">
-        <v>213.4020639300938</v>
+        <v>528.7273025218271</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>380.814208939434</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>233.9242614415237</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951946</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951946</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951946</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>110.9572157501789</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>314.3177428179431</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886843</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>973.3871879897969</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213392</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1831.57327976542</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1639.791488662171</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1639.791488662171</v>
       </c>
       <c r="U13" t="n">
-        <v>1513.842048484845</v>
+        <v>1639.791488662171</v>
       </c>
       <c r="V13" t="n">
-        <v>1259.157560278958</v>
+        <v>1639.791488662171</v>
       </c>
       <c r="W13" t="n">
-        <v>969.7403902419976</v>
+        <v>1478.210719733857</v>
       </c>
       <c r="X13" t="n">
-        <v>741.7508393439803</v>
+        <v>1250.22116883584</v>
       </c>
       <c r="Y13" t="n">
-        <v>520.9582602004501</v>
+        <v>1029.42858969231</v>
       </c>
     </row>
     <row r="14">
@@ -5266,40 +5266,40 @@
         <v>477.498021221791</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,19 +5308,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>3072.075344883007</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>2719.306689612893</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.25366140713</v>
+        <v>1977.114329431319</v>
       </c>
       <c r="Y14" t="n">
         <v>1977.114329431319</v>
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5375,34 +5375,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>848.0708164780106</v>
+        <v>917.6163259372735</v>
       </c>
       <c r="C16" t="n">
-        <v>679.1346335501037</v>
+        <v>748.6801430093666</v>
       </c>
       <c r="D16" t="n">
-        <v>529.0179941377679</v>
+        <v>598.5635035970308</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>450.6504100146377</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>303.7604625167273</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>136.0576258914463</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1876.347019717819</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T16" t="n">
-        <v>1654.580404287345</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U16" t="n">
-        <v>1365.477537412989</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V16" t="n">
-        <v>1365.477537412989</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W16" t="n">
-        <v>1076.060367376028</v>
+        <v>1548.046920809061</v>
       </c>
       <c r="X16" t="n">
-        <v>848.0708164780106</v>
+        <v>1320.057369911043</v>
       </c>
       <c r="Y16" t="n">
-        <v>848.0708164780106</v>
+        <v>1099.264790767513</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690177</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749766</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551633</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001598</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>137.557933208927</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074199</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972664</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>3130.950021746351</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075806</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188667</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604876</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261305</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991191</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730111</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754299</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.4168978689405</v>
+        <v>758.9852304414014</v>
       </c>
       <c r="C19" t="n">
-        <v>540.4807149410336</v>
+        <v>590.0490475134945</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>439.9324081011588</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839444</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839444</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839444</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1655.645296922954</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1366.542430048597</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V19" t="n">
-        <v>1111.85794184271</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W19" t="n">
-        <v>1111.85794184271</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X19" t="n">
-        <v>1111.85794184271</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="Y19" t="n">
-        <v>891.0653626991802</v>
+        <v>940.6336952716412</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>2669.340503119032</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>2295.874744857952</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>1905.73541288214</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.0738540998329</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="C22" t="n">
-        <v>171.0738540998329</v>
+        <v>385.5672164724183</v>
       </c>
       <c r="D22" t="n">
-        <v>171.0738540998329</v>
+        <v>235.4505770600826</v>
       </c>
       <c r="E22" t="n">
-        <v>171.0738540998329</v>
+        <v>235.4505770600826</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>88.56062956217221</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>554.5033994003252</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5995,22 +5995,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.293752345675</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2047.844055175504</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6059,31 +6059,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902952</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>688.1662718722065</v>
+        <v>596.3482642844385</v>
       </c>
       <c r="C25" t="n">
-        <v>688.1662718722065</v>
+        <v>427.4120813565316</v>
       </c>
       <c r="D25" t="n">
-        <v>558.0669121539789</v>
+        <v>277.2954419441959</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715858</v>
+        <v>129.3823483618028</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>129.3823483618028</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V25" t="n">
-        <v>1198.376021052697</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W25" t="n">
-        <v>908.9588510157366</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X25" t="n">
-        <v>908.9588510157366</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="Y25" t="n">
-        <v>688.1662718722065</v>
+        <v>777.9967291146783</v>
       </c>
     </row>
     <row r="26">
@@ -6205,67 +6205,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075804</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4411.329534748787</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4659.615896504469</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6460,34 +6460,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6499,16 +6499,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>488.8938622403219</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C31" t="n">
-        <v>319.9576793124151</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4509819463048</v>
+        <v>523.2661352466724</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>375.3530416642793</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>228.463094166369</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>709.6864413838521</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y31" t="n">
-        <v>488.8938622403219</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6718,34 +6718,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6803,16 +6803,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>540.4807149410336</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="C34" t="n">
-        <v>540.4807149410336</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6891,19 +6891,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1288.206478295169</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>998.7893082582084</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>942.9217589148035</v>
+        <v>634.1730896295413</v>
       </c>
       <c r="Y34" t="n">
-        <v>722.1291797712734</v>
+        <v>413.3805104860112</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2319.94651820049</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>1950.984001260078</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1592.718302653328</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1206.930050055083</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>795.9441452654758</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>380.8716951104722</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>83.28809471923942</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>83.28809471923942</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>272.1672256782649</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>605.9865993681113</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1057.02081261652</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2035.571115446349</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2959.354470412971</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3462.326941292308</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>3857.101307649486</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4105.387669405169</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4164.404735961971</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4164.404735961971</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4164.404735961971</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4153.982991115188</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3822.920103771618</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3470.151448501503</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3096.685690240423</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2706.546358264612</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973185</v>
+        <v>958.3198327681647</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161915</v>
+        <v>783.8668034870377</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549404</v>
+        <v>634.9323938257864</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494848</v>
+        <v>475.6949388203309</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763699</v>
+        <v>329.1603808472158</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089883</v>
+        <v>192.7972806798339</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468559</v>
+        <v>102.2953863177015</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>83.28809471923942</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>176.9653642098568</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193584</v>
+        <v>415.2295631902039</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>781.9277235028693</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1229.204048725185</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.72709227964</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.688371697694</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2424.187963173797</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2581.829520820397</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2581.685167412913</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2452.247280906392</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313402</v>
+        <v>2259.604280584248</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2031.536433718664</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216075</v>
+        <v>1796.384325486921</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487873</v>
+        <v>1542.146968758719</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.56840828234</v>
+        <v>1334.295468553187</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1126.535169788233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>877.1197344942216</v>
+        <v>476.6209225111669</v>
       </c>
       <c r="C37" t="n">
-        <v>708.1835515663147</v>
+        <v>476.6209225111669</v>
       </c>
       <c r="D37" t="n">
-        <v>558.0669121539789</v>
+        <v>326.5042830988311</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1538185715858</v>
+        <v>178.591189516438</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>83.28809471923942</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>83.28809471923942</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>83.28809471923942</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>83.28809471923942</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>128.410727166175</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>332.3979101150513</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>648.9577085635474</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>993.1147541630964</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.523130868961</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.852729789375</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.460230223034</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1944.070526375549</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1944.070526375549</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1752.384642202375</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1530.618026771901</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104704</v>
+        <v>1241.515159897544</v>
       </c>
       <c r="V37" t="n">
-        <v>1701.658977898817</v>
+        <v>986.8306716916576</v>
       </c>
       <c r="W37" t="n">
-        <v>1507.550329366009</v>
+        <v>697.413501654697</v>
       </c>
       <c r="X37" t="n">
-        <v>1279.560778467991</v>
+        <v>697.413501654697</v>
       </c>
       <c r="Y37" t="n">
-        <v>1058.768199324461</v>
+        <v>476.6209225111669</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2098.528281369342</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>1992.684705137945</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1634.419006531195</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1248.63075393295</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551618</v>
+        <v>837.644849143343</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>422.5723989883395</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>124.9887985971067</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>271.8710307956009</v>
       </c>
       <c r="K38" t="n">
-        <v>750.1800661608916</v>
+        <v>926.5943629309004</v>
       </c>
       <c r="L38" t="n">
-        <v>1614.698881814246</v>
+        <v>1377.628576179309</v>
       </c>
       <c r="M38" t="n">
-        <v>2593.249184644075</v>
+        <v>1911.160480851234</v>
       </c>
       <c r="N38" t="n">
-        <v>3573.001456870722</v>
+        <v>2457.939297910016</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>2960.911768789353</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>3674.266856236299</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4090.57792527197</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4039.304323355867</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>3833.32657574009</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>3579.796099013926</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3248.733211670355</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3248.733211670355</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>2875.267453409275</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2485.128121433464</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>958.0236378855008</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>783.5706086043738</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>634.6361989431225</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>475.3987439376669</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>328.8641859645519</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>192.50108579717</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>101.9991914350375</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>176.6691693271928</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>781.6315286202052</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.907853842521</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.430897396976</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.39217681503</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2423.891768291133</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.533325937733</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.388972530248</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2451.951086023728</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.308085701584</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2031.240238836</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1796.088130604257</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1541.850773876055</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1333.999273670523</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1126.238974905569</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>877.1197344942216</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="C40" t="n">
-        <v>708.1835515663147</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="D40" t="n">
-        <v>558.0669121539789</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="E40" t="n">
-        <v>410.1538185715858</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>128.114532283511</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>332.1017152323874</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>648.6615136808834</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>992.8185592804325</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.226935986297</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.556534906711</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.16403534037</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1752.088447319711</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1530.321831889237</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.890966501056</v>
+        <v>1241.218965014881</v>
       </c>
       <c r="V40" t="n">
-        <v>1542.890966501056</v>
+        <v>986.5344768089939</v>
       </c>
       <c r="W40" t="n">
-        <v>1507.550329366009</v>
+        <v>697.1173067720333</v>
       </c>
       <c r="X40" t="n">
-        <v>1279.560778467991</v>
+        <v>469.127755874016</v>
       </c>
       <c r="Y40" t="n">
-        <v>1058.768199324461</v>
+        <v>248.3351767304859</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2319.650323317826</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>1950.687806377414</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1592.422107770664</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1206.633855172419</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>795.6479503828118</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001578</v>
+        <v>380.5755002278082</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>271.8710307956009</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>717.6268907607709</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1168.66110400918</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>1702.193008681104</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420603</v>
+        <v>2248.971825739887</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3128.936476069342</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>3842.291563516288</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4090.57792527197</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3822.623908888954</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3469.855253618839</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3096.38949535776</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2706.250163381948</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>958.0236378855008</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>783.5706086043738</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>634.6361989431225</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>475.3987439376669</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>328.8641859645519</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>192.50108579717</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>101.9991914350375</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>176.6691693271928</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>781.6315286202052</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.907853842521</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.430897396976</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.39217681503</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2423.891768291133</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.533325937733</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2581.388972530248</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2451.951086023728</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.308085701584</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2031.240238836</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1796.088130604257</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1541.850773876055</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1333.999273670523</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1126.238974905569</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>708.1835515663147</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="C43" t="n">
-        <v>708.1835515663147</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="D43" t="n">
-        <v>558.0669121539789</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1538185715858</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>128.114532283511</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>332.1017152323874</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>648.6615136808834</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>992.8185592804325</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.226935986297</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.556534906711</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.16403534037</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1752.088447319711</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1530.321831889237</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1241.218965014881</v>
       </c>
       <c r="V43" t="n">
-        <v>1253.788099626699</v>
+        <v>986.5344768089939</v>
       </c>
       <c r="W43" t="n">
-        <v>1253.788099626699</v>
+        <v>697.1173067720333</v>
       </c>
       <c r="X43" t="n">
-        <v>1025.798548728682</v>
+        <v>469.127755874016</v>
       </c>
       <c r="Y43" t="n">
-        <v>805.005969585152</v>
+        <v>248.3351767304859</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>1951.737373715005</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>1695.101104746713</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1336.835406139962</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>951.0471535417178</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>540.0612487521103</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>124.9887985971067</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>124.9887985971067</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>271.8710307956009</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>605.6904044854474</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1056.724617733856</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>1964.792454053126</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2944.544726279772</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3447.517197159109</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>3842.291563516288</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4090.57792527197</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4039.304323355867</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4039.304323355867</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>3785.773846629704</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3454.710959286133</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3101.942304016019</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>2728.476545754939</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2338.337213779127</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>958.0236378855002</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>783.5706086043732</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>634.6361989431221</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>475.3987439376665</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>328.8641859645516</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>192.5010857971699</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>101.9991914350374</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657544</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>176.6691693271931</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>414.93336830754</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>781.631528620205</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.907853842521</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.430897396976</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.39217681503</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2423.891768291133</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.533325937733</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.388972530248</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2451.951086023728</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.308085701584</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2031.240238835999</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1796.088130604257</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1541.850773876055</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1333.999273670522</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1126.238974905568</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>307.2453974100822</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="C46" t="n">
-        <v>307.2453974100822</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="D46" t="n">
-        <v>307.2453974100822</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3323038276891</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>128.114532283511</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>332.1017152323874</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>648.6615136808834</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>992.8185592804325</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.226935986297</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.556534906711</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.16403534037</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1752.088447319711</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1530.321831889237</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1241.218965014881</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>986.5344768089939</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>697.1173067720333</v>
       </c>
       <c r="X46" t="n">
-        <v>709.6864413838521</v>
+        <v>469.127755874016</v>
       </c>
       <c r="Y46" t="n">
-        <v>488.8938622403219</v>
+        <v>248.3351767304859</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8467,7 +8467,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.5463950602909335</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9169,16 +9169,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>124.0833809162824</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,16 +9406,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9643,25 +9643,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>7.630896635344584</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,16 +9889,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>67.53663776704173</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>60.01894884691895</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>189.7998007892635</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>380.8126645533739</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10825,25 +10825,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>133.2530576400255</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>169.7219265454433</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>113.0671578538622</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>189.7998007892635</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>378.3191228761062</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22552,10 +22552,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>16.25857125419515</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>167.4900913566547</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22728,7 +22728,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>123.254417728535</v>
       </c>
       <c r="U4" t="n">
-        <v>131.0703856053968</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>138.0137949907124</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>41.55166946673114</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22962,10 +22962,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -22998,19 +22998,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>157.4983735401878</v>
+        <v>150.356955594279</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23026,19 +23026,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>290.6609893234198</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>339.0343133300067</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23184,13 +23184,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>59.54933966209472</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -23199,10 +23199,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -23235,10 +23235,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>157.4983735401878</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>141.6654981199204</v>
+        <v>14.07927793777407</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.04518470759555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.4645365582629</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>23.96681889249692</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>126.5580370975601</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>21.19860275476412</v>
+        <v>166.6308927084654</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>75.90496054965055</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.3309722444748</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>143.6045231484431</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>88.19473017624303</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,19 +23940,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>111.6267871176784</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>278.2857338412119</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>70.6633565680072</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>144.1977802603393</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>19.81710689716706</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>132.542707484754</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>71.88384262576317</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>34.45276913823344</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>170.4007815390663</v>
+        <v>150.9514371522695</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>240.6776445605873</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>51.07098417370464</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,22 +25362,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>94.35543628911083</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>260.4877513019252</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>251.535767572894</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>4.050886359714468</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>83.97778634328837</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>111.2029854923977</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>82.28749133742953</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>770429.2612857189</v>
+        <v>770429.2612857188</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>770429.2612857188</v>
+        <v>770429.2612857189</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839712.5002338423</v>
+        <v>838126.6600901193</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839712.5002338423</v>
+        <v>839712.5002338424</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>997148.1876184228</v>
+        <v>839712.5002338424</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>997148.1876184228</v>
+        <v>839712.5002338424</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>997148.1876184229</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>997148.1876184228</v>
+        <v>997148.1876184229</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>997148.1876184228</v>
+        <v>997148.1876184229</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>997148.1876184228</v>
+        <v>930632.8461034389</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>997148.1876184229</v>
+        <v>929027.5661778329</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>997148.1876184229</v>
+        <v>929027.566177833</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>997148.1876184227</v>
+        <v>929027.5661778329</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="E2" t="n">
+        <v>357333.370731361</v>
+      </c>
+      <c r="F2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="G2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>358046.9539194666</v>
-      </c>
-      <c r="G2" t="n">
-        <v>416935.8762313324</v>
-      </c>
-      <c r="H2" t="n">
-        <v>416935.8762313324</v>
       </c>
       <c r="I2" t="n">
         <v>416935.8762313324</v>
@@ -26340,22 +26340,22 @@
         <v>416935.8762313324</v>
       </c>
       <c r="K2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="L2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="M2" t="n">
-        <v>416935.8762313323</v>
+        <v>392055.7690326723</v>
       </c>
       <c r="N2" t="n">
-        <v>416935.8762313323</v>
+        <v>391455.3130217242</v>
       </c>
       <c r="O2" t="n">
-        <v>416935.8762313324</v>
+        <v>391455.3130217242</v>
       </c>
       <c r="P2" t="n">
-        <v>416935.8762313323</v>
+        <v>391455.3130217242</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>618960.3159503539</v>
+        <v>615427.5337980483</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3449.010472953162</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091497</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>96558.96659736053</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254681</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>87383.13961898992</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>62518.47524617217</v>
       </c>
       <c r="C4" t="n">
-        <v>62518.47524617217</v>
+        <v>62518.47524617216</v>
       </c>
       <c r="D4" t="n">
         <v>62518.47524617217</v>
       </c>
       <c r="E4" t="n">
-        <v>4890.851381993015</v>
+        <v>4967.456039976124</v>
       </c>
       <c r="F4" t="n">
         <v>4890.851381993015</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499383</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499382</v>
+        <v>16556.43626882339</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499382</v>
+        <v>16350.46994676232</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499381</v>
+        <v>16350.46994676231</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499382</v>
+        <v>16350.46994676231</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>74015.36825377264</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371367</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>87056.08405955585</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>86830.97594873124</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>86830.97594873124</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>86830.97594873124</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-437803.6057533997</v>
+        <v>-432342.0333821627</v>
       </c>
       <c r="C6" t="n">
-        <v>152164.2734611445</v>
+        <v>157625.8458323819</v>
       </c>
       <c r="D6" t="n">
-        <v>152164.2734611447</v>
+        <v>157625.8458323819</v>
       </c>
       <c r="E6" t="n">
-        <v>-343586.7432723347</v>
+        <v>-337428.0043054236</v>
       </c>
       <c r="F6" t="n">
-        <v>275373.5726780192</v>
+        <v>275053.1325733211</v>
       </c>
       <c r="G6" t="n">
-        <v>195266.270719452</v>
+        <v>278502.1430462743</v>
       </c>
       <c r="H6" t="n">
-        <v>294789.6794003669</v>
+        <v>278502.1430462742</v>
       </c>
       <c r="I6" t="n">
-        <v>294789.679400367</v>
+        <v>198835.4722150385</v>
       </c>
       <c r="J6" t="n">
-        <v>118366.4602077742</v>
+        <v>118971.2196198062</v>
       </c>
       <c r="K6" t="n">
-        <v>294789.6794003669</v>
+        <v>295394.4388123991</v>
       </c>
       <c r="L6" t="n">
-        <v>294789.679400367</v>
+        <v>295394.4388123991</v>
       </c>
       <c r="M6" t="n">
-        <v>255636.1966278201</v>
+        <v>288257.5765131213</v>
       </c>
       <c r="N6" t="n">
-        <v>294789.6794003668</v>
+        <v>288085.335620721</v>
       </c>
       <c r="O6" t="n">
-        <v>207406.5397813772</v>
+        <v>288085.335620721</v>
       </c>
       <c r="P6" t="n">
-        <v>294789.6794003668</v>
+        <v>288085.335620721</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170865</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26795,19 +26795,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
+        <v>827.6990193689933</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="G4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
@@ -26822,16 +26822,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1194.51293060493</v>
+        <v>1041.101183990493</v>
       </c>
       <c r="N4" t="n">
-        <v>1194.51293060493</v>
+        <v>1037.398747957193</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.51293060493</v>
+        <v>1037.398747957193</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.51293060493</v>
+        <v>1037.398747957193</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>709.0117429452002</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.0212934310116</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477374</v>
+        <v>153.4117466144377</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="G4" t="n">
-        <v>363.1114752026377</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>363.1114752026374</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477376</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026375</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477374</v>
+        <v>153.4117466144377</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026377</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31299,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.368865958441351</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.7426484968875</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628104</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>370.802037140262</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>555.7361331610845</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>689.4398147367341</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>767.1346347251655</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>779.547675129587</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>736.1047642553358</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>628.2483859063149</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>471.7883737696338</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>274.4357762619418</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.55553302798239</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.33754936634907</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237129</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.48141458701843</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>220.8471530724795</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>377.4629606178672</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>507.5455323732926</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>592.2816969034463</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>607.9576310312873</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>556.1624582295526</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>446.3694048776571</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325585</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.421964331906993</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4237178394216</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317053</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939679</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786772</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>299.8910453895539</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.1162662922077</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.15262484475579</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.373361333873355</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749792</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34465,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>335.6462821161039</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>453.6733997667469</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>536.7884014978928</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329961</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>506.006552833649</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.00952640581281</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>239.6215216435082</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>368.9911525934185</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>450.147662981428</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>476.615918947954</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>413.5662137851082</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>312.3949974633269</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.19322646531253</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405178</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687825</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.2981320007469</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>77.93802322981092</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>676.3852163291939</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35907,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>559.9327320482561</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36609,16 +36609,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>575.5896386552608</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>119.6321473891437</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>742.101636202175</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37311,16 +37311,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>933.1144999662854</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>470.444344195426</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>420.5162313491628</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>450.2584444092627</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>742.101636202175</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>917.240238706333</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
